--- a/NQI/NQI 17 Realizar a gestao geral de processos da unidade/files/attachments/SIGLA]_Gestao_dos_riscos_relacionados_aos_processos_estrategicos.xlsx
+++ b/NQI/NQI 17 Realizar a gestao geral de processos da unidade/files/attachments/SIGLA]_Gestao_dos_riscos_relacionados_aos_processos_estrategicos.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vulcano\discosvirtuais\qualidade\M3P\Artefatos\M3P_5ed ajustes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A8D6E-8EF5-4616-8E25-A6CEDEBD50CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gestão dos Riscos Relacionados " sheetId="1" r:id="rId1"/>
-    <sheet name="Intruções preenchimento" sheetId="2" r:id="rId2"/>
+    <sheet name="Instruções preenchimento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CONCEITO DE RISCO: POSSIBILIDADE DE OCORRÊNCIA DE UM EVENTO OU PROBLEMA QUE VENHA A TER IMPACTO NO CUMPRIMENTO DOS OBJETIVOS.</t>
   </si>
@@ -70,34 +69,6 @@
   </si>
   <si>
     <t>INSTRUÇÕES PARA O PREENCHIMENTO DA PLANILHA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>– Número sequencial, utilizado para a identificação do risco.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Processo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>– Nome codificado do processo.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -114,63 +85,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Data de Revisão do Risco </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>– Data na qual o risco foi revisado pela última vez. Valores de impacto e de probabilidade tendem a mudar ao longo do tempo e devem ser atualizados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ações de Contingência </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>– Ações que devem ser planejadas para serem executadas caso o risco ocorra. O chamado “Plano B”.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ações de Mitigação </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>– Ações executadas para diminuir o impacto e/ou a probabilidade do risco ocorrer. Não são obrigatórias para todos os riscos, mas são altamente recomendáveis para riscos com grau de exposição alto.</t>
-    </r>
-  </si>
-  <si>
     <t>→ A seguir são apresentadas indicações para a definição dos valores de “Probabilidade”, “Impacto” e “Grau de Exposição”:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probabilidade </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>– Probabilidade do risco ocorrer. Medida e descrita na tabela com valores “alta”, “média” e “baixa.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -201,8 +116,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Cabe ressaltar que nem todos os processos precisam ter riscos definidos, somente os processos considerados estratégicos, de acordo com a definição abaixo. 
+    <t>Pró-Reitoria de vínculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome Do Setor / Departamento / Divisão / Unidade</t>
+  </si>
+  <si>
+    <t>Gestão dos riscos relacionados aos processos estratégicos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Probabilidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>– Probabilidade de o risco ocorrer. Medida e descrita na tabela com valores “alta”, “média” e “baixa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Outras instruções importantes:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cabe ressaltar que nem todos os processos precisam ter riscos definidos, somente os processos considerados estratégicos, de acordo com a definição abaixo:
 </t>
     </r>
     <r>
@@ -216,7 +157,16 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Processos com mais de um risco definido - </t>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>– Número sequencial, utilizado para a identificação do risco</t>
     </r>
     <r>
       <rPr>
@@ -224,27 +174,153 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Devem ser descritos mantendo uma única ocorrência em relação ao nome do processo, criando divisões nas linhas de descrição do risco e respectivos campos associados.</t>
-    </r>
-  </si>
-  <si>
-    <t>Pró-Reitoria de vínculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nome Do Setor / Departamento / Divisão / Unidade</t>
-  </si>
-  <si>
-    <t>Gestão dos riscos relacionados aos processos estratégicos</t>
+      <t xml:space="preserve">. Utilizar </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>um número por risco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, mesmo nos casos em que há mais de um risco por processo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>– Nome codificado do process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o, conforme consta na Lista de Serviços.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data de Revisão do Risco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>– Data na qual o risco foi revisado pela última vez. Valores de impacto e de probabilidade tendem a mudar ao longo do t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>empo, por isso,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> devem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ser revisados e atualizados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ações de Contingência </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>– Ações que devem ser planejadas para serem executadas caso o risco ocorra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. O chamado “Plano B”. Iniciar a descrição da ação com verbo no infititivo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ações de Mitigação </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>– Ações executa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>das para diminuir o impacto e/ou a probabilidade de o risco ocorrer. Não são obrigatórias para todos os riscos, mas, são altamente recomendáveis para riscos com grau de exposição alto. Iniciar a descrição da ação com verbo no infinitivo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processos com mais de um risco definido - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Devem ser descritos mantendo uma única ocorrência em relação ao nome do processo (mesclar célula correspondente ao nome do processo), porém, deve ser atribuído um # para cada risco e mantentidas as divisões nas colunas correspondentes aos demais campos associados.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -370,6 +446,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -529,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,30 +687,33 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,13 +795,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38098</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>8292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1047,16 +1139,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1075,65 +1167,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="68.400000000000006" customHeight="1">
-      <c r="A1" s="29"/>
+      <c r="A1" s="28"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:10" s="21" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="D2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="D2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:10" s="21" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="D3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="D3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:10" s="21" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="C4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="28"/>
+      <c r="C4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" s="21" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1591,12 +1683,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="A38:A46 B38:I45 A9:I37">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1604,17 +1696,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B19:C45 D37:I45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B19:C45 D37:I45">
       <formula1>ISERROR(SEARCH(("1; 2; 3;"),(B19)))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G9:G36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G9:G36">
       <formula1>OR(NOT(ISERROR(DATEVALUE(G9))), AND(ISNUMBER(G9), LEFT(CELL("format", G9))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="F9:F36" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="F9:F36">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="A9:A46" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="A9:A46">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -1626,14 +1718,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha2">
+    <tabColor theme="8" tint="-0.249977111117893"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1668,28 +1761,28 @@
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3" ht="31.2" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="20"/>
     </row>
@@ -1700,72 +1793,74 @@
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1">
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3" s="21" customFormat="1" ht="36" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" ht="33" customHeight="1">
+    <row r="14" spans="1:3" s="21" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="20"/>
-      <c r="B14" s="28" t="s">
-        <v>24</v>
+      <c r="B14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" ht="40.200000000000003" customHeight="1">
+    <row r="15" spans="1:3" ht="37.799999999999997" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="22" t="s">
-        <v>23</v>
+      <c r="B15" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="40.200000000000003" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="27"/>
+      <c r="B16" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="20"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" s="23"/>
       <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -1809,7 +1904,9 @@
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="20"/>
       <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="B30" s="20"/>
@@ -1819,6 +1916,9 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B33" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
